--- a/biology/Botanique/Tournesol_mexicain/Tournesol_mexicain.xlsx
+++ b/biology/Botanique/Tournesol_mexicain/Tournesol_mexicain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tithonia diversifolia
 Le tournesol mexicain (Tithonia diversifolia) est une espèce de plante à fleurs de la famille des Asteracées originaire du Mexique et d'Amérique centrale, comme son nom l'indique, et devenue pantropicale.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herbe pérenne dressée pouvant atteindre 2,5 à 3 mètres de haut, le tournesol mexicain présente des feuilles alternes dont le limbe comporte 3 à 5 lobes. Il pousse souvent en massif. Les grandes fleurs voyantes sont jaune à orange et de 5 à15 cm de largeur. Les graines sont des akènes, à 4 angles et de 5 mm de long. Elles sont propagées par le vent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herbe pérenne dressée pouvant atteindre 2,5 à 3 mètres de haut, le tournesol mexicain présente des feuilles alternes dont le limbe comporte 3 à 5 lobes. Il pousse souvent en massif. Les grandes fleurs voyantes sont jaune à orange et de 5 à15 cm de largeur. Les graines sont des akènes, à 4 angles et de 5 mm de long. Elles sont propagées par le vent.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournesol mexicain aime le plein soleil, supporte bien la sècheresse ou la chaleur et peut pousser sur des sols pauvres. Il s'est naturalisé à La Réunion, surtout dans l'ouest, où l'on trouve parfois d'importants groupements près des ravines ou au bord des chemins. Il y est appelé Petite Fleur soleil ou Fleur la fête des mères, car il fleurit de mai à juin.
 </t>
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études menées au Kenya ont montré que la plante peut être utilisée comme engrais vert ; elle présente un grand potentiel pour augmenter la fertilité des sols pauvres en éléments nutritifs[3] en apportant azote (N), phosphore (P) et potassium (K) [4]. Elle agit même comme pesticide naturel. Elle peut aussi servir d'aliment pour la volaille, être utilisée en bois de chauffe, ou pour contrôler l'érosion des sols[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études menées au Kenya ont montré que la plante peut être utilisée comme engrais vert ; elle présente un grand potentiel pour augmenter la fertilité des sols pauvres en éléments nutritifs en apportant azote (N), phosphore (P) et potassium (K) . Elle agit même comme pesticide naturel. Elle peut aussi servir d'aliment pour la volaille, être utilisée en bois de chauffe, ou pour contrôler l'érosion des sols.
 </t>
         </is>
       </c>
